--- a/Thiết kế/UseCases/6. Quản lí kho.xlsx
+++ b/Thiết kế/UseCases/6. Quản lí kho.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA742F-DBD6-49F7-A37B-537F94CE325D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BD772-44CD-48EA-9D1C-10DECA7765EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
   <sheets>
     <sheet name="UCFormat - Quản lí kho" sheetId="1" r:id="rId1"/>
@@ -401,13 +401,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,26 +419,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,23 +458,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>797444</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>16263</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>96114</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>201077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D93CE1-63E8-48D8-99C6-3DD835DA28F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E85FE1A-ABB5-435C-98CA-6C2854626395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -490,52 +490,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15994380"/>
-          <a:ext cx="6009524" cy="7057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>477470</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>5554</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C22AED-FF8C-45F9-B214-E503C484FB07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8625840" y="251460"/>
-          <a:ext cx="5476190" cy="1285714"/>
+          <a:off x="8239125" y="0"/>
+          <a:ext cx="6192114" cy="7535327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,64 +803,63 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="3" width="39.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -914,71 +869,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -986,62 +941,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="17" t="s">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -1049,61 +1004,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+    <row r="31" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="17" t="s">
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1111,120 +1066,130 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="18"/>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="17" t="s">
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="18"/>
-    </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="19">
         <v>44158</v>
       </c>
-      <c r="C48" s="15"/>
+      <c r="C48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A15:A37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
@@ -1241,16 +1206,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:A37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A38:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Thiết kế/UseCases/6. Quản lí kho.xlsx
+++ b/Thiết kế/UseCases/6. Quản lí kho.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Thiết kế\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277BD772-44CD-48EA-9D1C-10DECA7765EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D085639-4669-4428-950B-06C4BBF9E7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
   <sheets>
     <sheet name="UCFormat - Quản lí kho" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Use Case Number:</t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">A1. </t>
   </si>
   <si>
-    <t xml:space="preserve">A3. </t>
-  </si>
-  <si>
     <t>Exception Paths:</t>
   </si>
   <si>
@@ -113,20 +110,61 @@
     </r>
   </si>
   <si>
-    <t>1. Actor chọn nút Cập nhật</t>
-  </si>
-  <si>
-    <t>2. Hệ thống chuyển tiếp vào cửa sổ hiển thị form cập nhật</t>
-  </si>
-  <si>
-    <t>3. Actor quản lí thay đổi thông tin cần thay đổi.</t>
-  </si>
-  <si>
-    <t>4. Actor quản lí chọn nút Lưu</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Hệ thống xác thực thông tin. </t>
+    <t>Quản lí kho</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>3. Actor chọn chức năng quản lí kho</t>
+  </si>
+  <si>
+    <t>4. Hệ thống chuyển tiếp vào trang quản lí kho</t>
+  </si>
+  <si>
+    <t>1. Actor nhấn nút Thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>2. Hệ thống hiển thị form thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>3. Actor nhập thông tin sản phẩm cần thêm</t>
+  </si>
+  <si>
+    <t>Actor muốn thêm hàng hóa, xem thông tin hàng hóa, cập nhật chi tiết hàng hóa</t>
+  </si>
+  <si>
+    <t>Thông tin hàng hóa đã được nhập vào cơ sở dữ liệu của hệ thống.</t>
+  </si>
+  <si>
+    <t>Actor xem/thêm/cập nhật được thông tin hàng hóa.</t>
+  </si>
+  <si>
+    <t>Mẫn Đạt</t>
+  </si>
+  <si>
+    <t>1. Actor đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>UC6</t>
+  </si>
+  <si>
+    <t>A2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Hệ thống hiển thị cửa sổ thông tin hàng hóa, use case kết thúc tại đây. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Hệ thống hiện thông báo thông tin sai qui định, quay về bước 2</t>
     </r>
     <r>
       <rPr>
@@ -135,21 +173,173 @@
         <color theme="1"/>
         <rFont val="Helvetica"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>của A1</t>
+    </r>
+  </si>
+  <si>
+    <t>Xem thông tin hàng hoá trong kho, thêm / cập nhật / xóa chi tiết hàng hoá.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Actor chọn xem thông tin hàng hóa. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A1, A2, A3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Actor chọn nút Lưu. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Actor nhấn vào nút Hủy, quay về bước 2 của A1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Actor nhấn vào nút Hủy, quay về bước 2 của A2.</t>
+    </r>
+  </si>
+  <si>
+    <t>A3.</t>
+  </si>
+  <si>
+    <t>3. Hệ thống hiển thị bảng xác nhận xóa</t>
+  </si>
+  <si>
+    <t>6. Hệ thống lưu thông tin sản phẩm vào cơ sở dữ liệu, hiện thông báo "Thêm sản phẩm thành công". Use case kết thúc tại đây.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Actor chọn nút Xóa </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Actor chọn nút đồng ý xóa, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>. Actor không đồng ý xóa, quay về bước 4 basic course.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Actor chọn sản phầm cần xóa.</t>
+  </si>
+  <si>
+    <t>1. Actor chọn sản phẩm cần cập nhật.</t>
+  </si>
+  <si>
+    <t>2. Actor chọn nút Cập nhật</t>
+  </si>
+  <si>
+    <t>3. Hệ thống chuyển tiếp vào cửa sổ hiển thị form cập nhật</t>
+  </si>
+  <si>
+    <t>4. Actor thay đổi thông tin cần thay đổi.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Actor quản lí chọn nút Lưu. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>A5.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Hệ thống xác thực thông tin. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
       <t>E2.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">E1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Hệ thống hiện thông báo thông tin sai qui định. Quay về bước 2</t>
-    </r>
+    <t>7. Hệ thống cập nhật thông tin sản phẩm vào cơ sở dữ liệu, hiện thông báo "Cập nhật thành công". Use case kết thúc tại đây.</t>
+  </si>
+  <si>
+    <t>5. Hệ thống xóa các sản phẩm khỏi CSDL, hiện thông báo "Xóa thành công". Use case kết thúc tại đây.</t>
   </si>
   <si>
     <r>
@@ -161,99 +351,8 @@
         <color theme="1"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>Hệ thống hiện thông báo thông tin sai qui định. Quay về bước 2</t>
-    </r>
-  </si>
-  <si>
-    <t>Quản lí kho</t>
-  </si>
-  <si>
-    <t>Xem thông tin hàng hoá trong kho, thêm/cập nhật chi tiết hàng hoá.</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>3. Actor chọn chức năng quản lí kho</t>
-  </si>
-  <si>
-    <t>4. Hệ thống chuyển tiếp vào trang quản lí kho</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Actor chọn xem thông tin hàng hóa. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>A1, A2.</t>
-    </r>
-  </si>
-  <si>
-    <t>6. Hệ thống hiển thị cửa sổ thông tin hàng hóa</t>
-  </si>
-  <si>
-    <t>1. Actor nhấn nút Thêm sản phẩm</t>
-  </si>
-  <si>
-    <t>2. Hệ thống hiển thị form thêm sản phẩm</t>
-  </si>
-  <si>
-    <t>3. Actor nhập thông tin sản phẩm cần thêm</t>
-  </si>
-  <si>
-    <t>5. Hệ thống cập nhật thông tin sản phẩm vào cơ sở dữ liệu, hiện thông báo "Cập nhật thành công".</t>
-  </si>
-  <si>
-    <t>Actor muốn thêm hàng hóa, xem thông tin hàng hóa, cập nhật chi tiết hàng hóa</t>
-  </si>
-  <si>
-    <t>Thông tin hàng hóa đã được nhập vào cơ sở dữ liệu của hệ thống.</t>
-  </si>
-  <si>
-    <t>Actor xem/thêm/cập nhật được thông tin hàng hóa.</t>
-  </si>
-  <si>
-    <t>Mẫn Đạt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Actor xem cửa sổ đã hiển thị, use case kết thúc tại đây. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Actor chọn nút Lưu. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>A3.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Actor nhấn vào nút Hủy</t>
-  </si>
-  <si>
-    <t>2. Hệ thống quay về bước 2.</t>
-  </si>
-  <si>
-    <t>1. Actor đăng nhập vào hệ thống</t>
-  </si>
-  <si>
-    <t>UC6</t>
-  </si>
-  <si>
-    <t>A2.</t>
-  </si>
-  <si>
-    <t>6. Hệ thống lưu thông tin sản phẩm vào cơ sở dữ liệu, hiện thông báo "Thêm sản phẩm thành công".</t>
+      <t>Hệ thống hiện thông báo thông tin sai qui định, quay về bước 3 của A2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -288,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -374,11 +473,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -404,13 +514,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -419,23 +529,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,21 +582,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>96114</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>201077</xdr:rowOff>
+      <xdr:colOff>294457</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E85FE1A-ABB5-435C-98CA-6C2854626395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D5D459-03DC-4EAA-83F7-41EA9A12F3BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -490,8 +612,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="0"/>
-          <a:ext cx="6192114" cy="7535327"/>
+          <a:off x="8465820" y="213360"/>
+          <a:ext cx="6542857" cy="7980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,66 +922,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C2621A-69EC-42B6-924F-E3471F86D7A7}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
-    <col min="2" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="39.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -869,343 +991,404 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="4" t="s">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+    <row r="27" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+    </row>
+    <row r="42" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="B46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="19"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="23"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="19"/>
+    </row>
+    <row r="49" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="23"/>
+    </row>
+    <row r="50" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="11" t="s">
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B53" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="10"/>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="B54" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B55" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B56" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="10"/>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="19">
+      <c r="B57" s="15">
         <v>44158</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C57" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A15:A37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A38:A40"/>
+  <mergeCells count="32">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A14:A45"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
